--- a/input/community_cohort_inputs_2023.xlsx
+++ b/input/community_cohort_inputs_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/amcadams_cmap_illinois_gov/Documents/Documents/GitHub/community-cohort-tool/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\GitHub\community-cohort-tool\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1A0601AD-1F7D-4417-885C-11F87AAE5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FD7D8D6-8F6E-43A6-AD74-14CDF9D7F17A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38850D0C-8566-4287-AAF9-71CA14CEA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14265" yWindow="1860" windowWidth="18240" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FACTORS_MUNI" sheetId="1" r:id="rId1"/>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3055,7 +3055,7 @@
         <v>2.2556785395792898E-2</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H3:H65" si="4">E4+F4</f>
+        <f t="shared" ref="H4:H65" si="4">E4+F4</f>
         <v>948787195</v>
       </c>
       <c r="I4" s="4">
@@ -18000,9 +18000,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18043,15 +18045,6 @@
       </c>
       <c r="B4" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>FACTORS_MUNI!G1</f>
-        <v>PCT_EDA_POP</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
